--- a/medicine/Psychotrope/Vignoble_des_Graves/Vignoble_des_Graves.xlsx
+++ b/medicine/Psychotrope/Vignoble_des_Graves/Vignoble_des_Graves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vignoble des Graves est une région du vignoble de Bordeaux, au sud de la ville de Bordeaux, le long de la rive gauche de la Garonne.
@@ -512,12 +524,14 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La région des Graves doit son nom à son sol, composé de graves (des graviers) arrachées au relief pyrénéen et déposées il y a des millions d'années par la Garonne au fur et à mesure du retrait de la mer vers l'ouest. Il s'agit de dépôts de petits cailloux (gravier et galets) blancs et ronds souvent mélangés à du sable et de l'argile, déposés par la Garonne et très prisés par les vignerons car ils retiennent de la chaleur. Elles forment une série de terrasses en pente douce de plus en plus anciennes à mesure qu'on s'éloigne du fleuve.
 Il y a d'abord les « argiles des palus », formation argilo-sableux des anciens marais bordant la Garonne (où est autorisée la production du bordeaux générique) ;
 puis il y a la terrasse datant du Mindel (Pléistocène moyen) formée de graves dans une matrice argileuse, à laquelle succède celle du Pléistocène inférieur (sur laquelle se trouve Haut-Brion, Pape Clément, Carbonnieux, La Louvière, Smith Haut Lafitte, etc.) avec enfin à l'ouest la « formation de Dépée » composée de sables argileux et de petits graviers (sur laquelle se trouve Fieuzal), qui annonce les sables landais.
-À ce tableau se rajoute les affluents rive gauche du fleuve qui non seulement découpent les terrasses en croupes, mais mettent à jour le substrat calcaire comme autant d'îlots : un peu de calcaire gréseux dit « faluns de Léognan » du Burdigalien près de Léognan, du « faluns de Labrède » qui est un calcaire friable (un peu sableux, fossilifère) datant de l'Aquitanien (Miocène inférieur) et du calcaire à Astéries du Stampien[1],[2].
+À ce tableau se rajoute les affluents rive gauche du fleuve qui non seulement découpent les terrasses en croupes, mais mettent à jour le substrat calcaire comme autant d'îlots : un peu de calcaire gréseux dit « faluns de Léognan » du Burdigalien près de Léognan, du « faluns de Labrède » qui est un calcaire friable (un peu sableux, fossilifère) datant de l'Aquitanien (Miocène inférieur) et du calcaire à Astéries du Stampien,.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">pessac-léognan (rouges et blancs) ;
 graves-supérieures (blancs moelleux) ;
